--- a/GUI_requestsList.xlsx
+++ b/GUI_requestsList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MATLAB_po\ConfocalStackAnalysisLMv2_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MATLAB_po\ConfocalStackAnalysisLMv2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Issues list moved to GitHub Project Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,6 +580,9 @@
       </c>
       <c r="I5" t="s">
         <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
